--- a/Processo/Avaliação/GRE-Avaliação Projeto.xlsx
+++ b/Processo/Avaliação/GRE-Avaliação Projeto.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="868" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="868" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções para preenchimento" sheetId="1" r:id="rId1"/>
     <sheet name="GRE" sheetId="27" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="171026"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -80,10 +80,16 @@
 As evidências apresentadas para este resultado permitem assegurar: (i) que as pessoas autorizadas a definir e a alterar requisitos foram identificadas? (ii) que existe um documento de requisitos que represente seu entendimento? (iii) que os requisitos foram aceitos pelo cliente ou um representante?</t>
   </si>
   <si>
-    <t>PR-Documento de Requisitos do Sistema &gt; 4. Requisitos de Sistema, 8.Casos de Uso do Sistema e 10. Aprovação do Documento de Requisitos.</t>
+    <t>PR-Documento de Requisitos do Sistema &gt; 10. Aprovação do Documento de Requisitos.</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>PG2016-1-Plano de Configuração</t>
+  </si>
+  <si>
+    <t>GRE-Aprovação dos Requisitos pelo Fornecedor de Requisitos</t>
   </si>
   <si>
     <t>(T,L,P,N,NA)</t>
@@ -114,6 +120,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>As evidências apresentadas para este resultado permitem assegurar: (i) que foram executadas revisões para identificar inconsistências em planos e demais produtos de trabalho do projeto, com base nos requisitos? (ii) que foram executadas ações para corrigir inconsistências identificadas ao longo do projeto?</t>
     </r>
@@ -143,6 +150,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>As evidências apresentadas para este resultado permitem assegurar: (i) que foi definida uma política organizacional estabelecendo as expectativas da organização para a execução do processo e que esta política é conhecida e de fácil acesso aos interessados? (ii) que a política organizacional foi atualizada, quando necessário? (iii) que a política organizacional tem respaldo da alta administração (por exemplo, por meio de aprovação da alta administração)?</t>
     </r>
@@ -159,6 +167,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">As evidências apresentadas para este resultado permitem assegurar que existe um plano para a execução do processo?   </t>
     </r>
@@ -173,23 +182,14 @@
     </r>
   </si>
   <si>
-    <t>GRE-Processo &gt; 5.Métricas</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RAP 5. As informações e os recursos necessários para a execução do processo são identificados e disponibilizados.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>As evidências apresentadas para este resultado permitem assegurar que foram identificados e disponibilizados os recursos necessários (ex: pessoal, financeiros,hardware/infra-estrutura, software/ferramentas) e as informações necessárias (ex: processos, padrões, modelos, guias) para executar o processo?</t>
-    </r>
-  </si>
-  <si>
-    <t>GRE-Processo &gt; 8.Atividades</t>
+    <t>GPR-Cronograma do Projeto</t>
+  </si>
+  <si>
+    <t>RAP 5. As informações e os recursos necessários para a execução do processo são identificados e disponibilizados.
+As evidências apresentadas para este resultado permitem assegurar que foram identificados e disponibilizados os recursos necessários (ex: pessoal, financeiros,hardware/infra-estrutura, software/ferramentas) e as informações necessárias (ex: processos, padrões, modelos, guias) para executar o processo?</t>
+  </si>
+  <si>
+    <t>GPR-Plano Geral do Projeto &gt; 5. Recursos Não Humanos e de Ambiente</t>
   </si>
   <si>
     <r>
@@ -209,6 +209,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">As evidências apresentadas para este resultado permitem assegurar que as responsabilidades e a autoridade para executar o processo foram definidas, atribuídas e comunicadas </t>
     </r>
@@ -216,12 +217,19 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>a todas as partes interessadas?</t>
     </r>
   </si>
   <si>
-    <t>GRE-Processo &gt; 8.Atividades e 4.Papeis</t>
+    <t xml:space="preserve">GRE-Processo &gt; 4.Papeis </t>
+  </si>
+  <si>
+    <t>GPR-Plano Geral do Projeto &gt; 9. Recursos Humanos</t>
+  </si>
+  <si>
+    <t>GPR-Aprovação do Plano de Projeto</t>
   </si>
   <si>
     <r>
@@ -232,6 +240,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>As evidências apresentadas para este resultado permitem assegurar que foi fornecido treinamento  formal (cursos) ou informal (mentoring) para a execução do processo? (Considerar que, quando o indivíduo já possui o perfil e habilidades para executar o processo, o treinamento é dispensável.)</t>
     </r>
@@ -248,6 +257,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>As evidências apresentadas para este resultado permitem assegurar que: (i) foi planejada a comunicação entre as partes interessadas no processo?; (ii) este planejamento foi monitorado?; (iii) existe evidência de que a comunicação ocorre de forma a garantir o envolvimento das partes interessadas?</t>
     </r>
@@ -256,7 +266,7 @@
     <t>GRE-Processo &gt; 6.Comunicações</t>
   </si>
   <si>
-    <t>Comunicações</t>
+    <t>GRE-Aprovação dos Requisitos do Sistema</t>
   </si>
   <si>
     <r>
@@ -267,12 +277,16 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>As evidências apresentadas para este resultado permitem assegurar que o projeto foi conduzido a partir da execução do seu processo planejado, bem como se existem registros de execução das atividades do processo com base no seu planejamento?</t>
     </r>
   </si>
   <si>
-    <t>GRE-Processo &gt; 7.Macro Fluxo e 8.Atividades</t>
+    <t>GRE-Processo</t>
+  </si>
+  <si>
+    <t>Gerencia de Requisitos (projeto)</t>
   </si>
 </sst>
 </file>
@@ -323,6 +337,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -377,17 +392,20 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -695,7 +713,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -704,8 +722,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -850,12 +869,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="5"/>
     <cellStyle name="Hyperlink 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -1358,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1417,32 +1440,40 @@
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
     </row>
-    <row r="6" spans="1:4" ht="25.5">
+    <row r="6" spans="1:4" ht="12.75">
       <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="49"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75">
-      <c r="A7" s="48"/>
+      <c r="A7" s="48" t="s">
+        <v>21</v>
+      </c>
       <c r="B7" s="16"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="12.75">
-      <c r="A8" s="17"/>
+      <c r="A8" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="B8" s="16"/>
       <c r="C8" s="49"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="12.75">
       <c r="A9" s="17"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="12.75">
@@ -1454,14 +1485,14 @@
     <row r="11" spans="1:4" ht="12.75">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="82.5" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="39"/>
@@ -1469,23 +1500,23 @@
     </row>
     <row r="13" spans="1:4" ht="12.75">
       <c r="A13" s="48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75">
       <c r="A14" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1510,14 +1541,14 @@
     <row r="18" spans="1:4" ht="12.75">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="63.75">
       <c r="A19" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -1525,11 +1556,11 @@
     </row>
     <row r="20" spans="1:4" ht="12.75">
       <c r="A20" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="49"/>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="50" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1560,14 +1591,14 @@
     <row r="25" spans="1:4" ht="12.75">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="63.75">
       <c r="A26" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -1575,13 +1606,13 @@
     </row>
     <row r="27" spans="1:4" ht="12.75">
       <c r="A27" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="16"/>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="50" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1593,7 +1624,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75">
       <c r="A29" s="17"/>
-      <c r="B29" s="50"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="49"/>
       <c r="D29" s="16"/>
     </row>
@@ -1612,14 +1643,14 @@
     <row r="32" spans="1:4" ht="12.75">
       <c r="A32" s="18"/>
       <c r="B32" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4" ht="63.75">
       <c r="A33" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -1627,13 +1658,13 @@
     </row>
     <row r="34" spans="1:4" ht="12.75">
       <c r="A34" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="16"/>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="50" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1664,7 +1695,7 @@
     <row r="39" spans="1:4" ht="12.75">
       <c r="A39" s="38"/>
       <c r="B39" s="37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
@@ -1677,7 +1708,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75">
       <c r="A41" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -1693,7 +1724,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
@@ -1701,7 +1732,7 @@
     </row>
     <row r="44" spans="1:4" ht="63.75">
       <c r="A44" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="32"/>
@@ -1709,13 +1740,13 @@
     </row>
     <row r="45" spans="1:4" ht="12.75">
       <c r="A45" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B45" s="16"/>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="49"/>
+      <c r="D45" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" ht="12.75">
       <c r="A46" s="17"/>
@@ -1744,14 +1775,14 @@
     <row r="50" spans="1:4" ht="12.75">
       <c r="A50" s="17"/>
       <c r="B50" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" ht="26.25">
       <c r="A51" s="30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="34"/>
@@ -1759,13 +1790,13 @@
     </row>
     <row r="52" spans="1:4" ht="12.75">
       <c r="A52" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B52" s="16"/>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="49"/>
+      <c r="D52" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:4" ht="12.75">
       <c r="A53" s="17"/>
@@ -1794,14 +1825,14 @@
     <row r="57" spans="1:4" ht="12.75">
       <c r="A57" s="17"/>
       <c r="B57" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4" ht="64.5">
       <c r="A58" s="30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -1809,13 +1840,13 @@
     </row>
     <row r="59" spans="1:4" ht="12.75">
       <c r="A59" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B59" s="16"/>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="49"/>
+      <c r="D59" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" ht="12.75">
       <c r="A60" s="17"/>
@@ -1844,14 +1875,14 @@
     <row r="64" spans="1:4" ht="12.75">
       <c r="A64" s="17"/>
       <c r="B64" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" ht="51.75">
       <c r="A65" s="30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -1859,25 +1890,33 @@
     </row>
     <row r="66" spans="1:4" ht="12.75">
       <c r="A66" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B66" s="16"/>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="49"/>
+      <c r="D66" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="16"/>
     </row>
     <row r="67" spans="1:4" ht="12.75">
-      <c r="A67" s="17"/>
+      <c r="A67" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
+      <c r="D67" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="12.75">
-      <c r="A68" s="17"/>
+      <c r="A68" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
+      <c r="D68" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="12.75">
       <c r="A69" s="17"/>
@@ -1894,14 +1933,14 @@
     <row r="71" spans="1:4" ht="12.75">
       <c r="A71" s="17"/>
       <c r="B71" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" ht="64.5">
       <c r="A72" s="30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -1909,13 +1948,13 @@
     </row>
     <row r="73" spans="1:4" ht="12.75">
       <c r="A73" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B73" s="16"/>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="49"/>
+      <c r="D73" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:4" ht="12.75">
       <c r="A74" s="17"/>
@@ -1944,14 +1983,14 @@
     <row r="78" spans="1:4" ht="12.75">
       <c r="A78" s="17"/>
       <c r="B78" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4" ht="64.5">
       <c r="A79" s="30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
@@ -1959,29 +1998,33 @@
     </row>
     <row r="80" spans="1:4" ht="12.75">
       <c r="A80" s="17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B80" s="16"/>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="49"/>
+      <c r="D80" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="16"/>
     </row>
     <row r="81" spans="1:4" ht="12.75">
       <c r="A81" s="17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="12.75">
-      <c r="A82" s="17"/>
+      <c r="A82" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
+      <c r="D82" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="12.75">
       <c r="A83" s="17"/>
@@ -1998,14 +2041,14 @@
     <row r="85" spans="1:4" ht="12.75">
       <c r="A85" s="17"/>
       <c r="B85" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4" ht="51.75">
       <c r="A86" s="30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -2013,31 +2056,35 @@
     </row>
     <row r="87" spans="1:4" ht="12.75">
       <c r="A87" s="17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B87" s="16"/>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="49"/>
+      <c r="D87" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="16"/>
     </row>
     <row r="88" spans="1:4" ht="12.75">
-      <c r="A88" s="17"/>
+      <c r="A88" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
+      <c r="D88" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="12.75">
       <c r="A89" s="17"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
+      <c r="D89" s="50"/>
     </row>
     <row r="90" spans="1:4" ht="12.75">
       <c r="A90" s="17"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
+      <c r="D90" s="50"/>
     </row>
     <row r="91" spans="1:4" ht="12.75">
       <c r="A91" s="17"/>
@@ -2048,7 +2095,7 @@
     <row r="92" spans="1:4" ht="12.75">
       <c r="A92" s="17"/>
       <c r="B92" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
@@ -2266,23 +2313,29 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C45" r:id="rId1"/>
-    <hyperlink ref="C52" r:id="rId2"/>
-    <hyperlink ref="C59" r:id="rId3"/>
-    <hyperlink ref="C66" r:id="rId4"/>
-    <hyperlink ref="C73" r:id="rId5"/>
-    <hyperlink ref="C80" r:id="rId6"/>
-    <hyperlink ref="C87" r:id="rId7"/>
-    <hyperlink ref="D81" r:id="rId8"/>
-    <hyperlink ref="D6" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D20" r:id="rId11"/>
-    <hyperlink ref="D14" r:id="rId12"/>
-    <hyperlink ref="D27" r:id="rId13"/>
-    <hyperlink ref="D34" r:id="rId14"/>
-    <hyperlink ref="C14" r:id="rId15"/>
-    <hyperlink ref="C27" r:id="rId16"/>
-    <hyperlink ref="C34" r:id="rId17"/>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D13" r:id="rId2"/>
+    <hyperlink ref="D20" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId4"/>
+    <hyperlink ref="D27" r:id="rId5"/>
+    <hyperlink ref="D34" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId7"/>
+    <hyperlink ref="C27" r:id="rId8"/>
+    <hyperlink ref="C34" r:id="rId9"/>
+    <hyperlink ref="D52" r:id="rId10"/>
+    <hyperlink ref="D59" r:id="rId11"/>
+    <hyperlink ref="D45" r:id="rId12"/>
+    <hyperlink ref="D66" r:id="rId13"/>
+    <hyperlink ref="D73" r:id="rId14"/>
+    <hyperlink ref="D80" r:id="rId15"/>
+    <hyperlink ref="D67" r:id="rId16"/>
+    <hyperlink ref="D68" r:id="rId17"/>
+    <hyperlink ref="D81" r:id="rId18"/>
+    <hyperlink ref="D7" r:id="rId19"/>
+    <hyperlink ref="D87" r:id="rId20"/>
+    <hyperlink ref="D88" r:id="rId21"/>
+    <hyperlink ref="D8" r:id="rId22"/>
+    <hyperlink ref="D82" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.49212598499999999" footer="0.49212598499999999"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>

--- a/Processo/Avaliação/GRE-Avaliação Projeto.xlsx
+++ b/Processo/Avaliação/GRE-Avaliação Projeto.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17615"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\PSW\Processo\Avaliação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bd467e9a205613b/Documentos/2016.2semestre - Processo de Software/Trabalho1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="868" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="868" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções para preenchimento" sheetId="1" r:id="rId1"/>
     <sheet name="GRE" sheetId="27" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="171026" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>GRE-Aprovação dos Requisitos pelo Fornecedor de Requisitos</t>
+  </si>
+  <si>
+    <t>Protótipos de Interface</t>
   </si>
   <si>
     <t>(T,L,P,N,NA)</t>
@@ -120,7 +123,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>As evidências apresentadas para este resultado permitem assegurar: (i) que foram executadas revisões para identificar inconsistências em planos e demais produtos de trabalho do projeto, com base nos requisitos? (ii) que foram executadas ações para corrigir inconsistências identificadas ao longo do projeto?</t>
     </r>
@@ -150,7 +152,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>As evidências apresentadas para este resultado permitem assegurar: (i) que foi definida uma política organizacional estabelecendo as expectativas da organização para a execução do processo e que esta política é conhecida e de fácil acesso aos interessados? (ii) que a política organizacional foi atualizada, quando necessário? (iii) que a política organizacional tem respaldo da alta administração (por exemplo, por meio de aprovação da alta administração)?</t>
     </r>
@@ -167,7 +168,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">As evidências apresentadas para este resultado permitem assegurar que existe um plano para a execução do processo?   </t>
     </r>
@@ -209,7 +209,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">As evidências apresentadas para este resultado permitem assegurar que as responsabilidades e a autoridade para executar o processo foram definidas, atribuídas e comunicadas </t>
     </r>
@@ -217,7 +216,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>a todas as partes interessadas?</t>
     </r>
@@ -240,7 +238,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>As evidências apresentadas para este resultado permitem assegurar que foi fornecido treinamento  formal (cursos) ou informal (mentoring) para a execução do processo? (Considerar que, quando o indivíduo já possui o perfil e habilidades para executar o processo, o treinamento é dispensável.)</t>
     </r>
@@ -257,7 +254,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>As evidências apresentadas para este resultado permitem assegurar que: (i) foi planejada a comunicação entre as partes interessadas no processo?; (ii) este planejamento foi monitorado?; (iii) existe evidência de que a comunicação ocorre de forma a garantir o envolvimento das partes interessadas?</t>
     </r>
@@ -277,22 +273,21 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>As evidências apresentadas para este resultado permitem assegurar que o projeto foi conduzido a partir da execução do seu processo planejado, bem como se existem registros de execução das atividades do processo com base no seu planejamento?</t>
     </r>
   </si>
   <si>
+    <t>PR-Gerencia de Requisitos (projeto)</t>
+  </si>
+  <si>
     <t>GRE-Processo</t>
-  </si>
-  <si>
-    <t>Gerencia de Requisitos (projeto)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="10"/>
@@ -337,7 +332,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -392,20 +386,17 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -878,11 +869,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Hyperlink" xfId="5"/>
-    <cellStyle name="Hyperlink 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="5" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_Consolidate Data 1" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Consolidate Data 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1286,10 +1277,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -1378,11 +1369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1410,7 +1401,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="48.75" thickBot="1">
+    <row r="3" spans="1:4" ht="50.25" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1471,10 +1462,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75">
-      <c r="A9" s="17"/>
+      <c r="A9" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="B9" s="16"/>
       <c r="C9" s="50"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="12.75">
       <c r="A10" s="17"/>
@@ -1485,14 +1480,14 @@
     <row r="11" spans="1:4" ht="12.75">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="82.5" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="39"/>
@@ -1500,7 +1495,7 @@
     </row>
     <row r="13" spans="1:4" ht="12.75">
       <c r="A13" s="48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="49"/>
@@ -1510,7 +1505,7 @@
     </row>
     <row r="14" spans="1:4" ht="12.75">
       <c r="A14" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="50" t="s">
@@ -1541,14 +1536,14 @@
     <row r="18" spans="1:4" ht="12.75">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="63.75">
       <c r="A19" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -1556,7 +1551,7 @@
     </row>
     <row r="20" spans="1:4" ht="12.75">
       <c r="A20" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="49"/>
@@ -1591,14 +1586,14 @@
     <row r="25" spans="1:4" ht="12.75">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="63.75">
       <c r="A26" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -1606,7 +1601,7 @@
     </row>
     <row r="27" spans="1:4" ht="12.75">
       <c r="A27" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="50" t="s">
@@ -1643,14 +1638,14 @@
     <row r="32" spans="1:4" ht="12.75">
       <c r="A32" s="18"/>
       <c r="B32" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4" ht="63.75">
       <c r="A33" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -1658,7 +1653,7 @@
     </row>
     <row r="34" spans="1:4" ht="12.75">
       <c r="A34" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="50" t="s">
@@ -1695,7 +1690,7 @@
     <row r="39" spans="1:4" ht="12.75">
       <c r="A39" s="38"/>
       <c r="B39" s="37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
@@ -1708,7 +1703,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75">
       <c r="A41" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -1724,7 +1719,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
@@ -1732,7 +1727,7 @@
     </row>
     <row r="44" spans="1:4" ht="63.75">
       <c r="A44" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="32"/>
@@ -1740,7 +1735,7 @@
     </row>
     <row r="45" spans="1:4" ht="12.75">
       <c r="A45" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="49"/>
@@ -1775,14 +1770,14 @@
     <row r="50" spans="1:4" ht="12.75">
       <c r="A50" s="17"/>
       <c r="B50" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" ht="26.25">
       <c r="A51" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="34"/>
@@ -1790,7 +1785,7 @@
     </row>
     <row r="52" spans="1:4" ht="12.75">
       <c r="A52" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="49"/>
@@ -1825,14 +1820,14 @@
     <row r="57" spans="1:4" ht="12.75">
       <c r="A57" s="17"/>
       <c r="B57" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
     </row>
-    <row r="58" spans="1:4" ht="64.5">
+    <row r="58" spans="1:4" ht="63.75">
       <c r="A58" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -1840,7 +1835,7 @@
     </row>
     <row r="59" spans="1:4" ht="12.75">
       <c r="A59" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="49"/>
@@ -1875,14 +1870,14 @@
     <row r="64" spans="1:4" ht="12.75">
       <c r="A64" s="17"/>
       <c r="B64" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" ht="51.75">
       <c r="A65" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -1890,7 +1885,7 @@
     </row>
     <row r="66" spans="1:4" ht="12.75">
       <c r="A66" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="49"/>
@@ -1900,7 +1895,7 @@
     </row>
     <row r="67" spans="1:4" ht="12.75">
       <c r="A67" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -1910,7 +1905,7 @@
     </row>
     <row r="68" spans="1:4" ht="12.75">
       <c r="A68" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -1933,14 +1928,14 @@
     <row r="71" spans="1:4" ht="12.75">
       <c r="A71" s="17"/>
       <c r="B71" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" ht="64.5">
       <c r="A72" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -1948,7 +1943,7 @@
     </row>
     <row r="73" spans="1:4" ht="12.75">
       <c r="A73" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="49"/>
@@ -1983,14 +1978,14 @@
     <row r="78" spans="1:4" ht="12.75">
       <c r="A78" s="17"/>
       <c r="B78" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4" ht="64.5">
       <c r="A79" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
@@ -1998,7 +1993,7 @@
     </row>
     <row r="80" spans="1:4" ht="12.75">
       <c r="A80" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="49"/>
@@ -2008,7 +2003,7 @@
     </row>
     <row r="81" spans="1:4" ht="12.75">
       <c r="A81" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -2041,14 +2036,14 @@
     <row r="85" spans="1:4" ht="12.75">
       <c r="A85" s="17"/>
       <c r="B85" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4" ht="51.75">
       <c r="A86" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -2066,7 +2061,7 @@
     </row>
     <row r="88" spans="1:4" ht="12.75">
       <c r="A88" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -2075,10 +2070,14 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="12.75">
-      <c r="A89" s="17"/>
+      <c r="A89" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
-      <c r="D89" s="50"/>
+      <c r="D89" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="12.75">
       <c r="A90" s="17"/>
@@ -2095,7 +2094,7 @@
     <row r="92" spans="1:4" ht="12.75">
       <c r="A92" s="17"/>
       <c r="B92" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
@@ -2313,29 +2312,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="D13" r:id="rId2"/>
-    <hyperlink ref="D20" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="D27" r:id="rId5"/>
-    <hyperlink ref="D34" r:id="rId6"/>
-    <hyperlink ref="C14" r:id="rId7"/>
-    <hyperlink ref="C27" r:id="rId8"/>
-    <hyperlink ref="C34" r:id="rId9"/>
-    <hyperlink ref="D52" r:id="rId10"/>
-    <hyperlink ref="D59" r:id="rId11"/>
-    <hyperlink ref="D45" r:id="rId12"/>
-    <hyperlink ref="D66" r:id="rId13"/>
-    <hyperlink ref="D73" r:id="rId14"/>
-    <hyperlink ref="D80" r:id="rId15"/>
-    <hyperlink ref="D67" r:id="rId16"/>
-    <hyperlink ref="D68" r:id="rId17"/>
-    <hyperlink ref="D81" r:id="rId18"/>
-    <hyperlink ref="D7" r:id="rId19"/>
-    <hyperlink ref="D87" r:id="rId20"/>
-    <hyperlink ref="D88" r:id="rId21"/>
-    <hyperlink ref="D8" r:id="rId22"/>
-    <hyperlink ref="D82" r:id="rId23"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{EB1B7A2A-9FCE-4E0A-941B-786527441339}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{DAB08794-813F-4061-B658-E552A1B4AF6B}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{C42E6E1B-592F-4C79-B1ED-63CD744F05E5}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{AE35C5F7-BBA3-43BB-B1E2-37387B140E55}"/>
+    <hyperlink ref="D27" r:id="rId5" xr:uid="{53536B53-4FD4-4CA3-A406-79CB9E8D0992}"/>
+    <hyperlink ref="D34" r:id="rId6" xr:uid="{9235CE81-A100-4861-9CD5-5F7F7B023C87}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{EF96505F-49D2-463E-B116-9E8C389BDE46}"/>
+    <hyperlink ref="C27" r:id="rId8" xr:uid="{9599BD39-0936-4CBF-93EE-8E9D96395636}"/>
+    <hyperlink ref="C34" r:id="rId9" xr:uid="{6138C448-60DC-4475-8652-33F5AC517B28}"/>
+    <hyperlink ref="D52" r:id="rId10" xr:uid="{F1F23792-11FC-4C30-B535-F471E639B099}"/>
+    <hyperlink ref="D59" r:id="rId11" xr:uid="{C59BF1FD-2E71-4CF2-904B-E6A6ED0D2459}"/>
+    <hyperlink ref="D45" r:id="rId12" xr:uid="{407ADAFF-DA0E-4D6E-A6B1-61800ED2EAB8}"/>
+    <hyperlink ref="D66" r:id="rId13" xr:uid="{297D6A69-6E04-4031-A85C-A0CDC09D55C9}"/>
+    <hyperlink ref="D73" r:id="rId14" xr:uid="{F03A805A-F4AD-45B3-B061-B3316D90F2C3}"/>
+    <hyperlink ref="D80" r:id="rId15" xr:uid="{A9010452-0A7E-4B28-80AF-4C5074BF4E95}"/>
+    <hyperlink ref="D67" r:id="rId16" xr:uid="{D7967537-83A3-4EDA-B278-7BE64C5A2AEB}"/>
+    <hyperlink ref="D68" r:id="rId17" xr:uid="{4A53B3E6-7FA8-42EF-BD02-C241C28292C8}"/>
+    <hyperlink ref="D81" r:id="rId18" xr:uid="{83166CFC-FE52-4C96-A807-EFFB940AC385}"/>
+    <hyperlink ref="D7" r:id="rId19" xr:uid="{210B1ACB-01F8-4F56-A1BE-BEA116F56E91}"/>
+    <hyperlink ref="D87" r:id="rId20" xr:uid="{BF92B278-F48F-4417-98CC-DE9790EEBD57}"/>
+    <hyperlink ref="D88" r:id="rId21" xr:uid="{82FF732C-A5CD-41ED-8912-8AD05D4ABA72}"/>
+    <hyperlink ref="D8" r:id="rId22" xr:uid="{717543A5-049F-4A7E-8FE9-977D6550E906}"/>
+    <hyperlink ref="D82" r:id="rId23" xr:uid="{AACC7C50-8DF4-44DE-8C94-6A6073F1E104}"/>
+    <hyperlink ref="D9" r:id="rId24" xr:uid="{3682F4CB-7EBB-41FC-B18F-F5CC9778A4D3}"/>
+    <hyperlink ref="D89" r:id="rId25" xr:uid="{9C7878EB-882D-42FE-8C98-AAEA40F45FE3}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.49212598499999999" footer="0.49212598499999999"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
